--- a/CAMEO Agile PLM表單_文件_料號_一覽表.xlsx
+++ b/CAMEO Agile PLM表單_文件_料號_一覽表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="305">
   <si>
     <t>BOM申請單</t>
   </si>
@@ -1303,6 +1303,10 @@
   <si>
     <t>C5產品首產報告</t>
   </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1450,12 +1454,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1464,6 +1462,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1779,10 +1783,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2157,10 +2161,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2563,10 +2567,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2885,10 +2889,10 @@
   <sheetFormatPr defaultColWidth="103.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3231,528 +3235,539 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D49"/>
+  <dimension ref="B2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="46.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="46.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D45" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D49" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D50" s="8" t="s">
         <v>280</v>
       </c>
     </row>
